--- a/braph2genesis/---pipelines---/structural NN/example data ST (MRI)/regression/xls/ST_group.xlsx
+++ b/braph2genesis/---pipelines---/structural NN/example data ST (MRI)/regression/xls/ST_group.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gunet-my.sharepoint.com/personal/yu-wei_chang_gu_se/Documents/ywc/projects/braph_example_data/Braph_ExampleData/Structural_NN_Regression_ExampleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hejyu\Documents\GitHub\BRAPH-2-Matlab\braph2genesis\---pipelines---\structural NN\example data ST (MRI)\regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_714DB0A7CE2FAB54A405CABC84E9C1D47CE4A305" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0A09B4-F461-4BB2-A959-05FAFF69F4AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF1CAC-A91B-4143-AC64-D43513ECF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:BS101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
